--- a/data/Dataset_preprocessing.xlsx
+++ b/data/Dataset_preprocessing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basil\Documents\Work\UQAC\S2\Séminaire\Projet\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basil\Documents\Work\UQAC\S2\Séminaire\SeminaireIA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E99F23-828F-4A08-B5AD-8942A4D57EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3FBA1D-6C19-40C7-A551-D9EA862D2021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21624" windowHeight="11052" xr2:uid="{E80DD2AD-FA2C-43F2-848E-4CD4E87C2301}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="21624" windowHeight="11052" xr2:uid="{E80DD2AD-FA2C-43F2-848E-4CD4E87C2301}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>Trait</t>
   </si>
@@ -62,21 +62,9 @@
     <t>Social Anxiety Disorder: CBT behavioural experiment case example (youtube.com)</t>
   </si>
   <si>
-    <t>1:38 to 1:48</t>
-  </si>
-  <si>
     <t>Angoisse Psychotique (Psychiatrie) 1971 (youtube.com)</t>
   </si>
   <si>
-    <t>6:56 to  7:06</t>
-  </si>
-  <si>
-    <t>2:17 to 2:27</t>
-  </si>
-  <si>
-    <t>0:32 to 0:42</t>
-  </si>
-  <si>
     <t>0:43 to 0:53</t>
   </si>
   <si>
@@ -189,13 +177,310 @@
   </si>
   <si>
     <t>Lien Youtube</t>
+  </si>
+  <si>
+    <t>Seq0</t>
+  </si>
+  <si>
+    <t>Seq4</t>
+  </si>
+  <si>
+    <t>Seq5</t>
+  </si>
+  <si>
+    <t>Seq6</t>
+  </si>
+  <si>
+    <t>Seq7</t>
+  </si>
+  <si>
+    <t>Seq8</t>
+  </si>
+  <si>
+    <t>Seq9</t>
+  </si>
+  <si>
+    <t>Seq10</t>
+  </si>
+  <si>
+    <t>Seq11</t>
+  </si>
+  <si>
+    <t>Seq12</t>
+  </si>
+  <si>
+    <t>Seq13</t>
+  </si>
+  <si>
+    <t>Seq14</t>
+  </si>
+  <si>
+    <t>Seq15</t>
+  </si>
+  <si>
+    <t>Seq16</t>
+  </si>
+  <si>
+    <t>Seq17</t>
+  </si>
+  <si>
+    <t>Seq18</t>
+  </si>
+  <si>
+    <t>Seq19</t>
+  </si>
+  <si>
+    <t>Seq20</t>
+  </si>
+  <si>
+    <t>Seq21</t>
+  </si>
+  <si>
+    <t>Seq22</t>
+  </si>
+  <si>
+    <t>Seq23</t>
+  </si>
+  <si>
+    <t>Seq24</t>
+  </si>
+  <si>
+    <t>Seq25</t>
+  </si>
+  <si>
+    <t>Seq26</t>
+  </si>
+  <si>
+    <t>Seq27</t>
+  </si>
+  <si>
+    <t>Seq28</t>
+  </si>
+  <si>
+    <t>Seq29</t>
+  </si>
+  <si>
+    <t>Seq30</t>
+  </si>
+  <si>
+    <t>Seq31</t>
+  </si>
+  <si>
+    <t>Seq32</t>
+  </si>
+  <si>
+    <t>Seq33</t>
+  </si>
+  <si>
+    <t>Seq34</t>
+  </si>
+  <si>
+    <t>Seq35</t>
+  </si>
+  <si>
+    <t>Seq36</t>
+  </si>
+  <si>
+    <t>Seq37</t>
+  </si>
+  <si>
+    <t>Seq38</t>
+  </si>
+  <si>
+    <t>Seq39</t>
+  </si>
+  <si>
+    <t>Seq40</t>
+  </si>
+  <si>
+    <t>Seq41</t>
+  </si>
+  <si>
+    <t>Seq42</t>
+  </si>
+  <si>
+    <t>Seq43</t>
+  </si>
+  <si>
+    <t>Seq44</t>
+  </si>
+  <si>
+    <t>Seq45</t>
+  </si>
+  <si>
+    <t>Seq46</t>
+  </si>
+  <si>
+    <t>Seq47</t>
+  </si>
+  <si>
+    <t>Seq48</t>
+  </si>
+  <si>
+    <t>Seq49</t>
+  </si>
+  <si>
+    <t>Seq50</t>
+  </si>
+  <si>
+    <t>Seq51</t>
+  </si>
+  <si>
+    <t>Seq52</t>
+  </si>
+  <si>
+    <t>Seq53</t>
+  </si>
+  <si>
+    <t>Seq54</t>
+  </si>
+  <si>
+    <t>Seq55</t>
+  </si>
+  <si>
+    <t>Seq56</t>
+  </si>
+  <si>
+    <t>Seq57</t>
+  </si>
+  <si>
+    <t>Seq58</t>
+  </si>
+  <si>
+    <t>Seq59</t>
+  </si>
+  <si>
+    <t>Seq60</t>
+  </si>
+  <si>
+    <t>Seq61</t>
+  </si>
+  <si>
+    <t>Seq62</t>
+  </si>
+  <si>
+    <t>Seq63</t>
+  </si>
+  <si>
+    <t>Seq64</t>
+  </si>
+  <si>
+    <t>Seq65</t>
+  </si>
+  <si>
+    <t>Seq66</t>
+  </si>
+  <si>
+    <t>Seq67</t>
+  </si>
+  <si>
+    <t>Seq68</t>
+  </si>
+  <si>
+    <t>Seq69</t>
+  </si>
+  <si>
+    <t>Seq70</t>
+  </si>
+  <si>
+    <t>Seq71</t>
+  </si>
+  <si>
+    <t>Seq72</t>
+  </si>
+  <si>
+    <t>Seq73</t>
+  </si>
+  <si>
+    <t>Seq74</t>
+  </si>
+  <si>
+    <t>Seq75</t>
+  </si>
+  <si>
+    <t>Seq76</t>
+  </si>
+  <si>
+    <t>Seq77</t>
+  </si>
+  <si>
+    <t>Seq78</t>
+  </si>
+  <si>
+    <t>Seq79</t>
+  </si>
+  <si>
+    <t>Seq80</t>
+  </si>
+  <si>
+    <t>Seq81</t>
+  </si>
+  <si>
+    <t>Seq82</t>
+  </si>
+  <si>
+    <t>Seq83</t>
+  </si>
+  <si>
+    <t>Seq84</t>
+  </si>
+  <si>
+    <t>Seq85</t>
+  </si>
+  <si>
+    <t>Seq86</t>
+  </si>
+  <si>
+    <t>Seq87</t>
+  </si>
+  <si>
+    <t>Seq88</t>
+  </si>
+  <si>
+    <t>Seq89</t>
+  </si>
+  <si>
+    <t>Seq90</t>
+  </si>
+  <si>
+    <t>Seq91</t>
+  </si>
+  <si>
+    <t>Seq92</t>
+  </si>
+  <si>
+    <t>Seq93</t>
+  </si>
+  <si>
+    <t>Seq94</t>
+  </si>
+  <si>
+    <t>Seq95</t>
+  </si>
+  <si>
+    <t>Seq96</t>
+  </si>
+  <si>
+    <t>Seq97</t>
+  </si>
+  <si>
+    <t>Seq98</t>
+  </si>
+  <si>
+    <t>Seq99</t>
+  </si>
+  <si>
+    <t>Seq100</t>
+  </si>
+  <si>
+    <t>Seq101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +492,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -572,35 +863,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503B799C-B42A-47E4-858C-2ED052BB6473}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:DG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -610,8 +1198,236 @@
       <c r="I2">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.29166666666667E-2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3.05555555555556E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>3.8194444444444399E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4.5833333333333302E-2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.3472222222222199E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.1111111111111102E-2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="T2" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>8.4027777777777798E-2</v>
+      </c>
+      <c r="V2" s="2">
+        <v>9.1666666666666702E-2</v>
+      </c>
+      <c r="W2" s="2">
+        <v>9.9305555555555494E-2</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.106944444444444</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.114583333333333</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.122222222222222</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.12986111111111101</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.14513888888888901</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.15277777777777801</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.16041666666666701</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.16805555555555601</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.17569444444444399</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.18333333333333299</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.19097222222222199</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.19861111111111099</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.21388888888888899</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0.22152777777777799</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.22916666666666699</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0.23680555555555599</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.24444444444444499</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0.25208333333333399</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0.25972222222222302</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0.26736111111111199</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0.27500000000000102</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0.28263888888888999</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0.29027777777777902</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0.297916666666668</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0.30555555555555702</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>0.313194444444446</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0.32083333333333502</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>0.328472222222224</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0.33611111111111303</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>0.343750000000002</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>0.35138888888889103</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>0.35902777777778</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0.36666666666666903</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>0.374305555555558</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>0.38194444444444697</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>0.389583333333336</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>0.39722222222222497</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>0.404861111111114</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>0.41250000000000298</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0.420138888888892</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>0.42777777777778098</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>0.43541666666667</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>0.44305555555555898</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>0.45069444444444801</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>0.45833333333333698</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>0.46597222222222601</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>0.47361111111111498</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>0.48125000000000401</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>0.48888888888889298</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>0.49652777777778201</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>0.50416666666667098</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>0.51180555555555995</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>0.51944444444444904</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>0.52708333333333801</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>0.53472222222222698</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>0.54236111111111596</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>0.55000000000000504</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>0.55763888888889401</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>0.56527777777778299</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>0.57291666666667196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -621,204 +1437,204 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J3" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>24</v>
       </c>
       <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>29</v>
       </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
         <v>39</v>
       </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1"/>
       <c r="I13">
@@ -826,28 +1642,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A25F4712-37F9-4666-AF94-0D2AE396112C}"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.youtube.com/watch?v=ExNs8o8A4fI" xr:uid="{D89B143C-69F1-4CBC-832F-E3709ACA36B1}"/>

--- a/data/Dataset_preprocessing.xlsx
+++ b/data/Dataset_preprocessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basil\Documents\Work\UQAC\S2\Séminaire\SeminaireIA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447090D-E4B4-4856-A1AE-1451F3A902D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F169282-BAAE-45B7-9D8F-B340ED5D4F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E80DD2AD-FA2C-43F2-848E-4CD4E87C2301}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>Trait</t>
   </si>
   <si>
-    <t xml:space="preserve">Lien Youtube </t>
-  </si>
-  <si>
     <t>N_Séquences</t>
   </si>
   <si>
@@ -164,45 +161,6 @@
     <t>https://www.youtube.com/watch?v=YrsohfDpumg</t>
   </si>
   <si>
-    <t>Anxiety Disorders and Panic Attacks: Alison Sommer at TEDxCarletonCollege (youtube.com)</t>
-  </si>
-  <si>
-    <t>6:17 to 6:27</t>
-  </si>
-  <si>
-    <t>6:32 to 6:42</t>
-  </si>
-  <si>
-    <t>6:43 to 6:53</t>
-  </si>
-  <si>
-    <t>6:58 to 7:08</t>
-  </si>
-  <si>
-    <t>7:11 to 7:21</t>
-  </si>
-  <si>
-    <t>7:23 to 7 :33</t>
-  </si>
-  <si>
-    <t>7:34 to 7:44</t>
-  </si>
-  <si>
-    <t>7:48 to 7:58</t>
-  </si>
-  <si>
-    <t>7:59 to 8:09</t>
-  </si>
-  <si>
-    <t>8:11 to 8:21</t>
-  </si>
-  <si>
-    <t>8:22 to 8:32</t>
-  </si>
-  <si>
-    <t>… continue to 10:26</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=k6xCuRi9wUk</t>
   </si>
   <si>
@@ -384,6 +342,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kKvK2foOTJM</t>
+  </si>
+  <si>
+    <t>Lien Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.youtube.com/watch?v=bl8_81JF3b8&amp;t=257s</t>
   </si>
 </sst>
 </file>
@@ -804,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503B799C-B42A-47E4-858C-2ED052BB6473}">
   <dimension ref="A1:CG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,264 +783,264 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
-        <v>39</v>
-      </c>
       <c r="AP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BE1" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BF1" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BG1" t="s">
         <v>60</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BH1" t="s">
         <v>61</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BI1" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BJ1" t="s">
         <v>63</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BK1" t="s">
         <v>64</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BL1" t="s">
         <v>65</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BM1" t="s">
         <v>66</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BN1" t="s">
         <v>67</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BO1" t="s">
         <v>68</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BP1" t="s">
         <v>69</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BQ1" t="s">
         <v>70</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BR1" t="s">
         <v>71</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BS1" t="s">
         <v>72</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BT1" t="s">
         <v>73</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BU1" t="s">
         <v>74</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BV1" t="s">
         <v>75</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BW1" t="s">
         <v>76</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BX1" t="s">
         <v>77</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BY1" t="s">
         <v>78</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BZ1" t="s">
         <v>79</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CA1" t="s">
         <v>80</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CB1" t="s">
         <v>81</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CC1" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CD1" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CE1" t="s">
         <v>84</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CF1" t="s">
         <v>85</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CG1" t="s">
         <v>86</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C2">
         <v>72</v>
@@ -1300,10 +1264,10 @@
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1323,10 +1287,10 @@
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1355,10 +1319,10 @@
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1369,10 +1333,10 @@
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1387,59 +1351,89 @@
         <v>0.11666666666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:85" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:85" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.36388888888888898</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.37152777777777801</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.37916666666666698</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.38680555555555601</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.39444444444444499</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.40208333333333401</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.40972222222222299</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.41736111111111102</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.42777777777777781</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1450,10 +1444,10 @@
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1488,10 +1482,10 @@
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1514,12 +1508,12 @@
     </row>
     <row r="13" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13">
         <f>SUM(C2:C12)</f>
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.3">
@@ -1530,58 +1524,58 @@
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1592,8 +1586,10 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{1AC5BD66-D976-4CDD-AB7C-BB142641857A}"/>
     <hyperlink ref="B7" r:id="rId4" display="https://www.youtube.com/watch?v=bl8_81JF3b8&amp;t=257s" xr:uid="{4EB0D706-52AB-4D31-92C6-D05D0D1B2DE1}"/>
     <hyperlink ref="B12" r:id="rId5" tooltip="https://www.youtube.com/watch?v=k6xCuRi9wUk" xr:uid="{BC5D6943-6684-4B51-B5D5-A9C58AAD6AFD}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{EEE00EC1-D55A-4149-837C-3F8E1983EF26}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{80D9DCE7-CFCF-434C-B3CB-7E3B789CD3CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/data/Dataset_preprocessing.xlsx
+++ b/data/Dataset_preprocessing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basil\Documents\Work\UQAC\S2\Séminaire\SeminaireIA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F169282-BAAE-45B7-9D8F-B340ED5D4F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5DBE59-159F-4655-A606-40AAE018EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E80DD2AD-FA2C-43F2-848E-4CD4E87C2301}"/>
   </bookViews>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503B799C-B42A-47E4-858C-2ED052BB6473}">
-  <dimension ref="A1:CG22"/>
+  <dimension ref="A1:CG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,53 +1529,600 @@
       <c r="B16" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>COUNT(D16:CY16)</f>
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.10138888888888889</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.15138888888888888</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.17222222222222222</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0.23680555555555555</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.27708333333333335</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.32013888888888886</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.36527777777777776</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0.46041666666666664</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.46805555555555556</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.47638888888888886</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.58611111111111114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" ref="C17:C22" si="0">COUNT(D17:CY17)</f>
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.17291666666666666</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.2048611111111111</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.25972222222222224</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.27430555555555558</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.36944444444444446</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.5694444444444443E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6.0416666666666667E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>8.5416666666666669E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.10486111111111111</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.17291666666666666</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.23402777777777778</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0.31736111111111109</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.33611111111111114</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.49027777777777776</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0.49791666666666667</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0.51458333333333328</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0.54722222222222228</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0.61319444444444449</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>0.67222222222222228</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0.70416666666666672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.1388888888888887E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7.1527777777777773E-2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.10277777777777777</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.12291666666666666</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.17291666666666666</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.23194444444444445</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0.24722222222222223</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0.27013888888888887</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.39305555555555555</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0.43680555555555556</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0.44722222222222224</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>0.49444444444444446</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>0.56041666666666667</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>0.61597222222222225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f>SUM(C16:C22)</f>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +2135,9 @@
     <hyperlink ref="B12" r:id="rId5" tooltip="https://www.youtube.com/watch?v=k6xCuRi9wUk" xr:uid="{BC5D6943-6684-4B51-B5D5-A9C58AAD6AFD}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{EEE00EC1-D55A-4149-837C-3F8E1983EF26}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{80D9DCE7-CFCF-434C-B3CB-7E3B789CD3CF}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{9790B692-FC71-4B34-90D8-8A506DFAD353}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>